--- a/Conditional Access Policy Description-v1.2.xlsx
+++ b/Conditional Access Policy Description-v1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insight24-my.sharepoint.com/personal/ksurksum_insight24_nl/Documents/Afbeeldingen/Conditional Access Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="8_{9FBA384B-0FB1-45BE-A2F4-EB13E8A722BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C7A83282-8CB4-4103-B2F6-9E54F4C98233}"/>
+  <xr:revisionPtr revIDLastSave="442" documentId="8_{9FBA384B-0FB1-45BE-A2F4-EB13E8A722BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A40B866C-7CE8-4D2F-8567-7AA5C41BC38C}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="57840" windowHeight="15990" tabRatio="480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="43200" windowHeight="11250" tabRatio="480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CA_Scenario's" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="191">
   <si>
     <t xml:space="preserve">Access to: </t>
   </si>
@@ -715,12 +715,6 @@
     <t>CAU011-All: Block access for All users except licensed when Browser and Modern Auth Clients-v1.0</t>
   </si>
   <si>
-    <t>CAD001-O365: Grant macOS access for All users when Browser and Modern Auth Clients and Compliant-v1.0</t>
-  </si>
-  <si>
-    <t>CAD002-O365: Grant Windows access for All users when Browser and Modern Auth Clients and Compliant-v1.0</t>
-  </si>
-  <si>
     <t>CAD003-O365: Grant iOS and Android access for All users when Modern Auth Clients and ApprovedApp or Compliant-v1.0</t>
   </si>
   <si>
@@ -758,6 +752,12 @@
   </si>
   <si>
     <t>CAD009-All: Session disable browser persistence for All users when Browser and Non-Compliant-v1.0</t>
+  </si>
+  <si>
+    <t>CAD001-O365: Grant macOS access for All users when Modern Auth Clients and Compliant-v1.0</t>
+  </si>
+  <si>
+    <t>CAD002-O365: Grant Windows access for All users when Modern Auth Clients and Compliant-v1.0</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1094,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1145,19 +1145,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1204,16 +1197,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2197,49 +2199,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="11970" topLeftCell="I1" activePane="topRight"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="11970" topLeftCell="C1" activePane="topRight"/>
       <selection activeCell="B31" sqref="B31"/>
-      <selection pane="topRight" activeCell="J34" sqref="J34"/>
+      <selection pane="topRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.9375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="113.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="25.1875" customWidth="1"/>
-    <col min="6" max="6" width="25.6875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.6875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="27.6875" customWidth="1"/>
+    <col min="9" max="9" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="27.75" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="25.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
     <col min="16" max="16" width="26.875" customWidth="1"/>
     <col min="17" max="17" width="9" style="10"/>
-    <col min="18" max="18" width="18.3125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.4375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="1.625" customWidth="1"/>
     <col min="21" max="21" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.1875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.1875" customWidth="1"/>
-    <col min="24" max="24" width="25.6875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.1875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.25" customWidth="1"/>
+    <col min="24" max="24" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.25" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="1.5" customWidth="1"/>
-    <col min="27" max="27" width="30.5625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="1.625" customWidth="1"/>
-    <col min="29" max="29" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.25" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.6875" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.75" style="10" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11.625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="39.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="58.4375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="58.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2254,7 +2256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
@@ -2323,7 +2325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2349,7 +2351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>38</v>
       </c>
@@ -2387,7 +2389,7 @@
       <c r="AG4" s="4"/>
       <c r="AH4" s="5"/>
     </row>
-    <row r="5" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="23" t="s">
         <v>164</v>
@@ -2434,7 +2436,7 @@
       <c r="AG5" s="4"/>
       <c r="AH5" s="5"/>
     </row>
-    <row r="6" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="24" t="s">
         <v>165</v>
@@ -2484,7 +2486,7 @@
       </c>
       <c r="AH6" s="5"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>39</v>
       </c>
@@ -2522,7 +2524,7 @@
       <c r="AG7" s="4"/>
       <c r="AH7" s="5"/>
     </row>
-    <row r="8" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="16" t="s">
         <v>166</v>
@@ -2570,7 +2572,7 @@
       </c>
       <c r="AH8" s="3"/>
     </row>
-    <row r="9" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="16" t="s">
         <v>167</v>
@@ -2622,7 +2624,7 @@
       </c>
       <c r="AH9" s="3"/>
     </row>
-    <row r="10" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="16" t="s">
         <v>168</v>
@@ -2669,7 +2671,7 @@
       <c r="AG10" s="4"/>
       <c r="AH10" s="3"/>
     </row>
-    <row r="11" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="16" t="s">
         <v>169</v>
@@ -2723,7 +2725,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="16" t="s">
         <v>170</v>
@@ -2773,7 +2775,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="16" t="s">
         <v>171</v>
@@ -2825,7 +2827,7 @@
       </c>
       <c r="AH13" s="3"/>
     </row>
-    <row r="14" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="16" t="s">
         <v>172</v>
@@ -2877,7 +2879,7 @@
       </c>
       <c r="AH14" s="3"/>
     </row>
-    <row r="15" spans="1:34" ht="185.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="16" t="s">
         <v>173</v>
@@ -2929,7 +2931,7 @@
       </c>
       <c r="AH15" s="3"/>
     </row>
-    <row r="16" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="16" t="s">
         <v>174</v>
@@ -2979,10 +2981,10 @@
       </c>
       <c r="AH16" s="3"/>
     </row>
-    <row r="17" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="4" t="s">
@@ -3029,7 +3031,7 @@
       </c>
       <c r="AH17" s="3"/>
     </row>
-    <row r="18" spans="1:34" ht="42.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:34" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="16" t="s">
         <v>175</v>
@@ -3077,7 +3079,7 @@
       <c r="AG18" s="4"/>
       <c r="AH18" s="3"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>40</v>
       </c>
@@ -3115,10 +3117,10 @@
       <c r="AG19" s="4"/>
       <c r="AH19" s="3"/>
     </row>
-    <row r="20" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="16" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="4" t="s">
@@ -3155,7 +3157,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="4" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
@@ -3169,10 +3171,10 @@
       </c>
       <c r="AH20" s="3"/>
     </row>
-    <row r="21" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="16" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="4" t="s">
@@ -3209,7 +3211,7 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="4" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
@@ -3223,10 +3225,10 @@
       </c>
       <c r="AH21" s="3"/>
     </row>
-    <row r="22" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="4" t="s">
@@ -3277,10 +3279,10 @@
       </c>
       <c r="AH22" s="3"/>
     </row>
-    <row r="23" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="4" t="s">
@@ -3331,10 +3333,10 @@
       </c>
       <c r="AH23" s="3"/>
     </row>
-    <row r="24" spans="1:34" ht="57" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:34" ht="66" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="4" t="s">
@@ -3383,10 +3385,10 @@
       <c r="AG24" s="4"/>
       <c r="AH24" s="3"/>
     </row>
-    <row r="25" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="4" t="s">
@@ -3437,10 +3439,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="4" t="s">
@@ -3492,10 +3494,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="4" t="s">
@@ -3546,10 +3548,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="4" t="s">
@@ -3600,7 +3602,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>63</v>
       </c>
@@ -3638,10 +3640,10 @@
       <c r="AG29" s="4"/>
       <c r="AH29" s="3"/>
     </row>
-    <row r="30" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="4" t="s">
@@ -3688,15 +3690,13 @@
       <c r="AG30" s="4"/>
       <c r="AH30" s="3"/>
     </row>
-    <row r="31" spans="1:34" ht="28.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:34" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="D31" s="4"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
         <v>101</v>
@@ -3742,8 +3742,8 @@
       <c r="AG31" s="4"/>
       <c r="AH31" s="3"/>
     </row>
-    <row r="33" spans="2:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" spans="2:5" ht="399" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="B34" s="18" t="s">
         <v>29</v>
       </c>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="36" spans="2:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>21</v>
       </c>
@@ -3760,32 +3760,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D37" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="30.75" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:5" ht="28.5" x14ac:dyDescent="0.3">
       <c r="D38" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="92.25" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:5" ht="85.5" x14ac:dyDescent="0.3">
       <c r="D39" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="92.25" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:5" ht="85.5" x14ac:dyDescent="0.3">
       <c r="D40" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="15.4" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D41" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D42" s="19" t="s">
         <v>27</v>
       </c>
@@ -3955,2244 +3955,2242 @@
   <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195:F195"/>
+      <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.1875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.8125" customWidth="1"/>
-    <col min="3" max="3" width="27.5625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.25" customWidth="1"/>
-    <col min="5" max="5" width="40.8125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="31"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="33" t="s">
+      <c r="F2" s="62"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="64"/>
+      <c r="E3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39" t="s">
+      <c r="D4" s="65"/>
+      <c r="E4" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="41" t="s">
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="42" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="46" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="31" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="31" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="36" t="s">
+      <c r="F10" s="62"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="36" t="s">
+      <c r="D11" s="64"/>
+      <c r="E11" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="50" t="s">
+      <c r="D12" s="65"/>
+      <c r="E12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="40"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="41" t="s">
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="45"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="42" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="51" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="45"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="46" t="s">
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="49"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="30" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="31" t="s">
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="31" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="31"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="36" t="s">
+      <c r="F18" s="62"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="36" t="s">
+      <c r="D19" s="64"/>
+      <c r="E19" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="50" t="s">
+      <c r="D20" s="65"/>
+      <c r="E20" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="40"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="41" t="s">
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="45"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="42" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="40"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="51" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="45"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="46" t="s">
+      <c r="F22" s="40"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="49"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="30" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="44"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="65" t="s">
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="67" t="s">
         <v>106</v>
       </c>
       <c r="B26" s="68"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="65" t="s">
+      <c r="C26" s="69"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="66"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="36" t="s">
+      <c r="F26" s="69"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="36" t="s">
+      <c r="D27" s="64"/>
+      <c r="E27" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A28" s="36" t="s">
+    <row r="28" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="50" t="s">
+      <c r="D28" s="64"/>
+      <c r="E28" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="53"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="41" t="s">
+      <c r="F28" s="48"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="54"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="42" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="49"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="51" t="s">
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="54"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="41" t="s">
+      <c r="F30" s="49"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="54"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="42" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="49"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="54"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="46" t="s">
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="49"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="55"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="30" t="s">
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="50"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="31" t="s">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="31" t="s">
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="31"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="36" t="s">
+      <c r="F36" s="62"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="36" t="s">
+      <c r="D37" s="64"/>
+      <c r="E37" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="36" t="s">
+    <row r="38" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39" t="s">
+      <c r="D38" s="65"/>
+      <c r="E38" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="40"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="41" t="s">
+      <c r="F38" s="35"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="45"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="42" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="45"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="46" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="30" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="31" t="s">
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="31" t="s">
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="31"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="36" t="s">
+      <c r="F44" s="62"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="36" t="s">
+      <c r="D45" s="64"/>
+      <c r="E45" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="71.25" x14ac:dyDescent="0.4">
-      <c r="A46" s="36" t="s">
+    <row r="46" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="56" t="s">
+      <c r="D46" s="65"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="51" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="54" t="s">
+      <c r="B47" s="37"/>
+      <c r="C47" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="57"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="42" t="s">
+      <c r="D47" s="65"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="52"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="57"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="46" t="s">
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="58"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="30" t="s">
+      <c r="B49" s="41"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="53"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="31" t="s">
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="31" t="s">
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="31"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="36" t="s">
+      <c r="F52" s="62"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="36" t="s">
+      <c r="D53" s="64"/>
+      <c r="E53" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="40" t="s">
+      <c r="F53" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="57" x14ac:dyDescent="0.4">
-      <c r="A54" s="36" t="s">
+    <row r="54" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="59" t="s">
+      <c r="D54" s="65"/>
+      <c r="E54" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="56" t="s">
+      <c r="F54" s="51" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="41" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="42"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="57"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="42" t="s">
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="60" t="s">
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="57"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="46" t="s">
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="58"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="30" t="s">
+      <c r="B57" s="41"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="53"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="31" t="s">
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="31" t="s">
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="31"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="36" t="s">
+      <c r="F60" s="62"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="36" t="s">
+      <c r="D61" s="64"/>
+      <c r="E61" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F61" s="40" t="s">
+      <c r="F61" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A62" s="36" t="s">
+    <row r="62" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="50" t="s">
+      <c r="D62" s="65"/>
+      <c r="E62" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F62" s="40"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="41" t="s">
+      <c r="F62" s="35"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="43" t="s">
+      <c r="B63" s="37"/>
+      <c r="C63" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="38"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="45"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="42" t="s">
+      <c r="D63" s="65"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="40"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="42"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="51" t="s">
+      <c r="B64" s="37"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="F64" s="45"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="46" t="s">
+      <c r="F64" s="40"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="46"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="49"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="30" t="s">
+      <c r="B65" s="41"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="44"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="31" t="s">
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="31" t="s">
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="31"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="36" t="s">
+      <c r="F68" s="62"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="34"/>
-      <c r="E69" s="36" t="s">
+      <c r="D69" s="64"/>
+      <c r="E69" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="40" t="s">
+      <c r="F69" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A70" s="36" t="s">
+    <row r="70" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D70" s="38"/>
-      <c r="E70" s="50" t="s">
+      <c r="D70" s="65"/>
+      <c r="E70" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="40"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="41" t="s">
+      <c r="F70" s="35"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="42"/>
-      <c r="C71" s="43" t="s">
+      <c r="B71" s="37"/>
+      <c r="C71" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D71" s="38"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="45"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="42" t="s">
+      <c r="D71" s="65"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="40"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B72" s="42"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="51" t="s">
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="F72" s="45"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="46" t="s">
+      <c r="F72" s="40"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="46"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="52"/>
-      <c r="F73" s="49"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="30" t="s">
+      <c r="B73" s="41"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="44"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="31" t="s">
+      <c r="B75" s="66"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="31" t="s">
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="31"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="36" t="s">
+      <c r="F76" s="62"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B77" s="36" t="s">
+      <c r="B77" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D77" s="34"/>
-      <c r="E77" s="36" t="s">
+      <c r="D77" s="64"/>
+      <c r="E77" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="40" t="s">
+      <c r="F77" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="213.75" x14ac:dyDescent="0.4">
-      <c r="A78" s="40" t="s">
+    <row r="78" spans="1:6" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D78" s="38"/>
-      <c r="E78" s="50" t="s">
+      <c r="D78" s="65"/>
+      <c r="E78" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="40"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="41" t="s">
+      <c r="F78" s="35"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="42"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="45"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="42" t="s">
+      <c r="B79" s="37"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="40"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B80" s="42"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="51" t="s">
+      <c r="B80" s="37"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="F80" s="45"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81" s="46" t="s">
+      <c r="F80" s="40"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="B81" s="46"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="49"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A83" s="30" t="s">
+      <c r="B81" s="41"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="44"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84" s="31" t="s">
+      <c r="B83" s="66"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="31" t="s">
+      <c r="B84" s="62"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="31"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" s="36" t="s">
+      <c r="F84" s="62"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="36" t="s">
+      <c r="B85" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D85" s="34"/>
-      <c r="E85" s="36" t="s">
+      <c r="D85" s="64"/>
+      <c r="E85" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="40" t="s">
+      <c r="F85" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A86" s="40" t="s">
+    <row r="86" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="53" t="s">
+      <c r="C86" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D86" s="38"/>
-      <c r="E86" s="50" t="s">
+      <c r="D86" s="65"/>
+      <c r="E86" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="40"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A87" s="41" t="s">
+      <c r="F86" s="35"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B87" s="42"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="45"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88" s="42" t="s">
+      <c r="B87" s="37"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="40"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="51" t="s">
+      <c r="B88" s="37"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="F88" s="45"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A89" s="46" t="s">
+      <c r="F88" s="40"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="B89" s="46"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="49"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A91" s="30" t="s">
+      <c r="B89" s="41"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="44"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92" s="31" t="s">
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="31" t="s">
+      <c r="B92" s="62"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="31"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="36" t="s">
+      <c r="F92" s="62"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B93" s="36" t="s">
+      <c r="B93" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D93" s="34"/>
-      <c r="E93" s="36" t="s">
+      <c r="D93" s="64"/>
+      <c r="E93" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F93" s="40" t="s">
+      <c r="F93" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A94" s="36" t="s">
+    <row r="94" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B94" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C94" s="53" t="s">
+      <c r="C94" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D94" s="38"/>
-      <c r="E94" s="50" t="s">
+      <c r="D94" s="65"/>
+      <c r="E94" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="40"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="41" t="s">
+      <c r="F94" s="35"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="45"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96" s="42" t="s">
+      <c r="B95" s="37"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="40"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B96" s="42"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="51" t="s">
+      <c r="B96" s="37"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="F96" s="45"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A97" s="46" t="s">
+      <c r="F96" s="40"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="B97" s="46"/>
-      <c r="C97" s="47"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="52"/>
-      <c r="F97" s="49"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99" s="30" t="s">
+      <c r="B97" s="41"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="44"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100" s="31" t="s">
+      <c r="B99" s="66"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="31" t="s">
+      <c r="B100" s="62"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="31"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A101" s="36" t="s">
+      <c r="F100" s="62"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C101" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D101" s="34"/>
-      <c r="E101" s="36" t="s">
+      <c r="D101" s="64"/>
+      <c r="E101" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="40" t="s">
+      <c r="F101" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A102" s="36" t="s">
+    <row r="102" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B102" s="37" t="s">
+      <c r="B102" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C102" s="53" t="s">
+      <c r="C102" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D102" s="38"/>
-      <c r="E102" s="39" t="s">
+      <c r="D102" s="65"/>
+      <c r="E102" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F102" s="40"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A103" s="41" t="s">
+      <c r="F102" s="35"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="43"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="45"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A104" s="42" t="s">
+      <c r="B103" s="38"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="40"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="45"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A105" s="42" t="s">
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="40"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="45"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A106" s="46" t="s">
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="40"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="B106" s="47"/>
-      <c r="C106" s="47"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="49"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A108" s="30" t="s">
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="44"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="B108" s="66"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" s="62"/>
+      <c r="C109" s="62"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="62"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110" s="64"/>
+      <c r="E110" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A111" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C111" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D111" s="65"/>
+      <c r="E111" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="48"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="37"/>
+      <c r="C112" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D112" s="65"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="49"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="37"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F113" s="49"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" s="37"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="46"/>
+      <c r="F114" s="49"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" s="37"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="46"/>
+      <c r="F115" s="49"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B116" s="41"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="66"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="50"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="B118" s="66"/>
+      <c r="C118" s="66"/>
+      <c r="D118" s="66"/>
+      <c r="E118" s="66"/>
+      <c r="F118" s="66"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B119" s="62"/>
+      <c r="C119" s="62"/>
+      <c r="D119" s="63"/>
+      <c r="E119" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="62"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D120" s="64"/>
+      <c r="E120" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A121" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D121" s="65"/>
+      <c r="E121" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="48"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B122" s="37"/>
+      <c r="C122" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D122" s="65"/>
+      <c r="E122" s="46"/>
+      <c r="F122" s="49"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B123" s="37"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F123" s="49"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B124" s="37"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="46"/>
+      <c r="F124" s="49"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B125" s="37"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="65"/>
+      <c r="E125" s="46"/>
+      <c r="F125" s="49"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" s="41"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="66"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="50"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A109" s="31" t="s">
+      <c r="B128" s="66"/>
+      <c r="C128" s="66"/>
+      <c r="D128" s="66"/>
+      <c r="E128" s="66"/>
+      <c r="F128" s="66"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="31" t="s">
+      <c r="B129" s="62"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="63"/>
+      <c r="E129" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="31"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A110" s="36" t="s">
+      <c r="F129" s="62"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B110" s="36" t="s">
+      <c r="B130" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C130" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D110" s="34"/>
-      <c r="E110" s="36" t="s">
+      <c r="D130" s="64"/>
+      <c r="E130" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="40" t="s">
+      <c r="F130" s="35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A111" s="36" t="s">
+    <row r="131" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A131" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B111" s="36" t="s">
+      <c r="B131" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C111" s="53" t="s">
+      <c r="C131" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D131" s="65"/>
+      <c r="E131" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="48"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B132" s="37"/>
+      <c r="C132" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D132" s="65"/>
+      <c r="E132" s="46"/>
+      <c r="F132" s="49"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133" s="37"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="65"/>
+      <c r="E133" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F133" s="49"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" s="37"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="65"/>
+      <c r="E134" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="F134" s="49"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B135" s="37"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="65"/>
+      <c r="E135" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="F135" s="49"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" s="41"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="66"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="50"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="B138" s="66"/>
+      <c r="C138" s="66"/>
+      <c r="D138" s="66"/>
+      <c r="E138" s="66"/>
+      <c r="F138" s="66"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B139" s="62"/>
+      <c r="C139" s="62"/>
+      <c r="D139" s="63"/>
+      <c r="E139" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="62"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B140" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D140" s="64"/>
+      <c r="E140" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B141" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C141" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D141" s="65"/>
+      <c r="E141" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" s="35"/>
+    </row>
+    <row r="142" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A142" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B142" s="37"/>
+      <c r="C142" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D142" s="65"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="40"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B143" s="37"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="65"/>
+      <c r="E143" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F143" s="40"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="41"/>
+      <c r="C144" s="42"/>
+      <c r="D144" s="66"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="44"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="B146" s="66"/>
+      <c r="C146" s="66"/>
+      <c r="D146" s="66"/>
+      <c r="E146" s="66"/>
+      <c r="F146" s="66"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B147" s="62"/>
+      <c r="C147" s="62"/>
+      <c r="D147" s="63"/>
+      <c r="E147" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" s="62"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B148" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D148" s="64"/>
+      <c r="E148" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A149" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B149" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D149" s="65"/>
+      <c r="E149" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F149" s="35"/>
+    </row>
+    <row r="150" spans="1:6" ht="99" x14ac:dyDescent="0.3">
+      <c r="A150" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B150" s="37"/>
+      <c r="C150" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D150" s="65"/>
+      <c r="E150" s="39"/>
+      <c r="F150" s="40"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B151" s="37"/>
+      <c r="C151" s="38"/>
+      <c r="D151" s="65"/>
+      <c r="E151" s="39"/>
+      <c r="F151" s="40"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B152" s="41"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="66"/>
+      <c r="E152" s="43"/>
+      <c r="F152" s="44"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="B154" s="66"/>
+      <c r="C154" s="66"/>
+      <c r="D154" s="66"/>
+      <c r="E154" s="66"/>
+      <c r="F154" s="66"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B155" s="62"/>
+      <c r="C155" s="62"/>
+      <c r="D155" s="63"/>
+      <c r="E155" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="62"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B156" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D156" s="64"/>
+      <c r="E156" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A157" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C157" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D157" s="65"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A158" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B158" s="37"/>
+      <c r="C158" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D158" s="65"/>
+      <c r="E158" s="37"/>
+      <c r="F158" s="52"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B159" s="37"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="65"/>
+      <c r="E159" s="37"/>
+      <c r="F159" s="52"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B160" s="41"/>
+      <c r="C160" s="42"/>
+      <c r="D160" s="66"/>
+      <c r="E160" s="41"/>
+      <c r="F160" s="53"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B162" s="66"/>
+      <c r="C162" s="66"/>
+      <c r="D162" s="66"/>
+      <c r="E162" s="66"/>
+      <c r="F162" s="66"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B163" s="62"/>
+      <c r="C163" s="62"/>
+      <c r="D163" s="63"/>
+      <c r="E163" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="62"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B164" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D164" s="64"/>
+      <c r="E164" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A165" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D165" s="65"/>
+      <c r="E165" s="32"/>
+      <c r="F165" s="51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A166" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B166" s="37"/>
+      <c r="C166" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D166" s="65"/>
+      <c r="E166" s="37"/>
+      <c r="F166" s="52"/>
+    </row>
+    <row r="167" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A167" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B167" s="37"/>
+      <c r="C167" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D167" s="65"/>
+      <c r="E167" s="37"/>
+      <c r="F167" s="52"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B168" s="41"/>
+      <c r="C168" s="42"/>
+      <c r="D168" s="66"/>
+      <c r="E168" s="41"/>
+      <c r="F168" s="53"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="B171" s="66"/>
+      <c r="C171" s="66"/>
+      <c r="D171" s="66"/>
+      <c r="E171" s="66"/>
+      <c r="F171" s="66"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B172" s="62"/>
+      <c r="C172" s="62"/>
+      <c r="D172" s="63"/>
+      <c r="E172" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F172" s="62"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B173" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D173" s="64"/>
+      <c r="E173" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A174" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B174" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D174" s="65"/>
+      <c r="E174" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F174" s="51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A175" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B175" s="37"/>
+      <c r="C175" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D175" s="65"/>
+      <c r="E175" s="37"/>
+      <c r="F175" s="52"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B176" s="37"/>
+      <c r="C176" s="38"/>
+      <c r="D176" s="65"/>
+      <c r="E176" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F176" s="52"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B177" s="41"/>
+      <c r="C177" s="42"/>
+      <c r="D177" s="66"/>
+      <c r="E177" s="41"/>
+      <c r="F177" s="53"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" s="66"/>
+      <c r="C179" s="66"/>
+      <c r="D179" s="66"/>
+      <c r="E179" s="66"/>
+      <c r="F179" s="66"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B180" s="62"/>
+      <c r="C180" s="62"/>
+      <c r="D180" s="63"/>
+      <c r="E180" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180" s="62"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B181" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D181" s="64"/>
+      <c r="E181" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A182" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B182" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D182" s="65"/>
+      <c r="E182" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F182" s="51" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A183" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B183" s="37"/>
+      <c r="C183" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D183" s="65"/>
+      <c r="E183" s="37"/>
+      <c r="F183" s="52"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B184" s="37"/>
+      <c r="C184" s="38"/>
+      <c r="D184" s="65"/>
+      <c r="E184" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F184" s="52"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B185" s="41"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="66"/>
+      <c r="E185" s="41"/>
+      <c r="F185" s="53"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B187" s="66"/>
+      <c r="C187" s="66"/>
+      <c r="D187" s="66"/>
+      <c r="E187" s="66"/>
+      <c r="F187" s="66"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B188" s="62"/>
+      <c r="C188" s="62"/>
+      <c r="D188" s="63"/>
+      <c r="E188" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" s="62"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B189" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D189" s="64"/>
+      <c r="E189" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A190" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B190" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="D111" s="38"/>
-      <c r="E111" s="50" t="s">
+      <c r="D190" s="65"/>
+      <c r="E190" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F190" s="35"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B191" s="37"/>
+      <c r="C191" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D191" s="65"/>
+      <c r="E191" s="39"/>
+      <c r="F191" s="40"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B192" s="37"/>
+      <c r="C192" s="38"/>
+      <c r="D192" s="65"/>
+      <c r="E192" s="39"/>
+      <c r="F192" s="40"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B193" s="41"/>
+      <c r="C193" s="42"/>
+      <c r="D193" s="66"/>
+      <c r="E193" s="43"/>
+      <c r="F193" s="44"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B195" s="66"/>
+      <c r="C195" s="66"/>
+      <c r="D195" s="66"/>
+      <c r="E195" s="66"/>
+      <c r="F195" s="66"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B196" s="62"/>
+      <c r="C196" s="62"/>
+      <c r="D196" s="63"/>
+      <c r="E196" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196" s="62"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D197" s="64"/>
+      <c r="E197" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F111" s="53"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A112" s="41" t="s">
+      <c r="F197" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A198" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B198" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C198" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D198" s="65"/>
+      <c r="E198" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F198" s="35"/>
+    </row>
+    <row r="199" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A199" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="42"/>
-      <c r="C112" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D112" s="38"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="54"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A113" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" s="42"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="38"/>
-      <c r="E113" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="F113" s="54"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A114" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B114" s="42"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="38"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="54"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A115" s="42" t="s">
+      <c r="B199" s="60"/>
+      <c r="C199" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="D199" s="65"/>
+      <c r="E199" s="39"/>
+      <c r="F199" s="40"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B115" s="42"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="51"/>
-      <c r="F115" s="54"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A116" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B116" s="46"/>
-      <c r="C116" s="47"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="52"/>
-      <c r="F116" s="55"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="B118" s="30"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="30"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="31"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A120" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B120" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D120" s="34"/>
-      <c r="E120" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A121" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B121" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="D121" s="38"/>
-      <c r="E121" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="53"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A122" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B122" s="42"/>
-      <c r="C122" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="D122" s="38"/>
-      <c r="E122" s="51"/>
-      <c r="F122" s="54"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A123" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="B123" s="42"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="F123" s="54"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A124" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B124" s="42"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="51"/>
-      <c r="F124" s="54"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A125" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B125" s="42"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="51"/>
-      <c r="F125" s="54"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A126" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="B126" s="46"/>
-      <c r="C126" s="47"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="52"/>
-      <c r="F126" s="55"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A128" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B128" s="30"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="30"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A129" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B129" s="31"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="32"/>
-      <c r="E129" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="31"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A130" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B130" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D130" s="34"/>
-      <c r="E130" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A131" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B131" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C131" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="D131" s="38"/>
-      <c r="E131" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" s="53"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A132" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B132" s="42"/>
-      <c r="C132" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="D132" s="38"/>
-      <c r="E132" s="51"/>
-      <c r="F132" s="54"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A133" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="B133" s="42"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="F133" s="54"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A134" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B134" s="42"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="38"/>
-      <c r="E134" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="F134" s="54"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A135" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B135" s="42"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="38"/>
-      <c r="E135" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="F135" s="54"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A136" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="B136" s="46"/>
-      <c r="C136" s="47"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="52"/>
-      <c r="F136" s="55"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A138" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="30"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A139" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="32"/>
-      <c r="E139" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139" s="31"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A140" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B140" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D140" s="34"/>
-      <c r="E140" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F140" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A141" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B141" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C141" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D141" s="38"/>
-      <c r="E141" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" s="40"/>
-    </row>
-    <row r="142" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A142" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B142" s="42"/>
-      <c r="C142" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="D142" s="38"/>
-      <c r="E142" s="51"/>
-      <c r="F142" s="45"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A143" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B143" s="42"/>
-      <c r="C143" s="43"/>
-      <c r="D143" s="38"/>
-      <c r="E143" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="F143" s="45"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A144" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144" s="46"/>
-      <c r="C144" s="47"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="52"/>
-      <c r="F144" s="49"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A146" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="B146" s="30"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A147" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147" s="31"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A148" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B148" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D148" s="34"/>
-      <c r="E148" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A149" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B149" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C149" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D149" s="38"/>
-      <c r="E149" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F149" s="40"/>
-    </row>
-    <row r="150" spans="1:6" ht="71.25" x14ac:dyDescent="0.4">
-      <c r="A150" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B150" s="42"/>
-      <c r="C150" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="D150" s="38"/>
-      <c r="E150" s="44"/>
-      <c r="F150" s="45"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A151" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B151" s="42"/>
-      <c r="C151" s="43"/>
-      <c r="D151" s="38"/>
-      <c r="E151" s="44"/>
-      <c r="F151" s="45"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A152" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="B152" s="46"/>
-      <c r="C152" s="47"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="48"/>
-      <c r="F152" s="49"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A154" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B154" s="30"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="30"/>
-      <c r="E154" s="30"/>
-      <c r="F154" s="30"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A155" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B155" s="31"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" s="31"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A156" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B156" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D156" s="34"/>
-      <c r="E156" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F156" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A157" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B157" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C157" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="D157" s="38"/>
-      <c r="E157" s="36"/>
-      <c r="F157" s="56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A158" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B158" s="42"/>
-      <c r="C158" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="D158" s="38"/>
-      <c r="E158" s="42"/>
-      <c r="F158" s="57"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A159" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B159" s="42"/>
-      <c r="C159" s="43"/>
-      <c r="D159" s="38"/>
-      <c r="E159" s="42"/>
-      <c r="F159" s="57"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A160" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="B160" s="46"/>
-      <c r="C160" s="47"/>
-      <c r="D160" s="30"/>
-      <c r="E160" s="46"/>
-      <c r="F160" s="58"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A162" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="B162" s="30"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="30"/>
-      <c r="E162" s="30"/>
-      <c r="F162" s="30"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A163" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="32"/>
-      <c r="E163" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F163" s="31"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A164" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B164" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D164" s="34"/>
-      <c r="E164" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A165" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B165" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C165" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="D165" s="38"/>
-      <c r="E165" s="36"/>
-      <c r="F165" s="56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A166" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B166" s="42"/>
-      <c r="C166" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="D166" s="38"/>
-      <c r="E166" s="42"/>
-      <c r="F166" s="57"/>
-    </row>
-    <row r="167" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A167" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B167" s="42"/>
-      <c r="C167" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="D167" s="38"/>
-      <c r="E167" s="42"/>
-      <c r="F167" s="57"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A168" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="B168" s="46"/>
-      <c r="C168" s="47"/>
-      <c r="D168" s="30"/>
-      <c r="E168" s="46"/>
-      <c r="F168" s="58"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A171" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="B171" s="30"/>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="30"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A172" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B172" s="31"/>
-      <c r="C172" s="31"/>
-      <c r="D172" s="32"/>
-      <c r="E172" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F172" s="31"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A173" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B173" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D173" s="34"/>
-      <c r="E173" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F173" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A174" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B174" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C174" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="D174" s="38"/>
-      <c r="E174" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="F174" s="56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A175" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B175" s="42"/>
-      <c r="C175" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="D175" s="38"/>
-      <c r="E175" s="42"/>
-      <c r="F175" s="57"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A176" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B176" s="42"/>
-      <c r="C176" s="43"/>
-      <c r="D176" s="38"/>
-      <c r="E176" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="F176" s="57"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A177" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="B177" s="46"/>
-      <c r="C177" s="47"/>
-      <c r="D177" s="30"/>
-      <c r="E177" s="46"/>
-      <c r="F177" s="58"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A179" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B179" s="30"/>
-      <c r="C179" s="30"/>
-      <c r="D179" s="30"/>
-      <c r="E179" s="30"/>
-      <c r="F179" s="30"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A180" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B180" s="31"/>
-      <c r="C180" s="31"/>
-      <c r="D180" s="32"/>
-      <c r="E180" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F180" s="31"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A181" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B181" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D181" s="34"/>
-      <c r="E181" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A182" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B182" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C182" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="D182" s="38"/>
-      <c r="E182" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="F182" s="56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A183" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B183" s="42"/>
-      <c r="C183" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="D183" s="38"/>
-      <c r="E183" s="42"/>
-      <c r="F183" s="57"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A184" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B184" s="42"/>
-      <c r="C184" s="43"/>
-      <c r="D184" s="38"/>
-      <c r="E184" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="F184" s="57"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A185" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B185" s="46"/>
-      <c r="C185" s="47"/>
-      <c r="D185" s="30"/>
-      <c r="E185" s="46"/>
-      <c r="F185" s="58"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A187" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="B187" s="30"/>
-      <c r="C187" s="30"/>
-      <c r="D187" s="30"/>
-      <c r="E187" s="30"/>
-      <c r="F187" s="30"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A188" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B188" s="31"/>
-      <c r="C188" s="31"/>
-      <c r="D188" s="32"/>
-      <c r="E188" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F188" s="31"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A189" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B189" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C189" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D189" s="34"/>
-      <c r="E189" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F189" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A190" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B190" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C190" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="D190" s="38"/>
-      <c r="E190" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F190" s="40"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A191" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="B191" s="42"/>
-      <c r="C191" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D191" s="38"/>
-      <c r="E191" s="44"/>
-      <c r="F191" s="45"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A192" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B192" s="42"/>
-      <c r="C192" s="43"/>
-      <c r="D192" s="38"/>
-      <c r="E192" s="44"/>
-      <c r="F192" s="45"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A193" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="B193" s="46"/>
-      <c r="C193" s="47"/>
-      <c r="D193" s="30"/>
-      <c r="E193" s="48"/>
-      <c r="F193" s="49"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A195" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B195" s="30"/>
-      <c r="C195" s="30"/>
-      <c r="D195" s="30"/>
-      <c r="E195" s="30"/>
-      <c r="F195" s="30"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A196" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B196" s="31"/>
-      <c r="C196" s="31"/>
-      <c r="D196" s="32"/>
-      <c r="E196" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F196" s="31"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A197" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B197" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D197" s="34"/>
-      <c r="E197" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F197" s="40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A198" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="B198" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C198" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="D198" s="38"/>
-      <c r="E198" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F198" s="40"/>
-    </row>
-    <row r="199" spans="1:6" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="A199" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="B199" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="C199" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="D199" s="38"/>
-      <c r="E199" s="44"/>
-      <c r="F199" s="45"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A200" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="B200" s="42"/>
-      <c r="C200" s="43"/>
-      <c r="D200" s="38"/>
-      <c r="E200" s="44"/>
-      <c r="F200" s="45"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A201" s="61" t="s">
+      <c r="B200" s="60"/>
+      <c r="C200" s="38"/>
+      <c r="D200" s="65"/>
+      <c r="E200" s="39"/>
+      <c r="F200" s="40"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="B201" s="46"/>
-      <c r="C201" s="47"/>
-      <c r="D201" s="30"/>
-      <c r="E201" s="48"/>
-      <c r="F201" s="49"/>
+      <c r="B201" s="61"/>
+      <c r="C201" s="42"/>
+      <c r="D201" s="66"/>
+      <c r="E201" s="43"/>
+      <c r="F201" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="96">
@@ -6208,11 +6206,6 @@
     <mergeCell ref="A188:C188"/>
     <mergeCell ref="D188:D193"/>
     <mergeCell ref="E188:F188"/>
-    <mergeCell ref="A162:F162"/>
-    <mergeCell ref="A163:C163"/>
-    <mergeCell ref="D163:D168"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="A171:F171"/>
     <mergeCell ref="A172:C172"/>
     <mergeCell ref="D172:D177"/>
     <mergeCell ref="E172:F172"/>
@@ -6224,6 +6217,11 @@
     <mergeCell ref="A155:C155"/>
     <mergeCell ref="D155:D160"/>
     <mergeCell ref="E155:F155"/>
+    <mergeCell ref="A162:F162"/>
+    <mergeCell ref="A163:C163"/>
+    <mergeCell ref="D163:D168"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="A171:F171"/>
     <mergeCell ref="A138:F138"/>
     <mergeCell ref="A139:C139"/>
     <mergeCell ref="D139:D144"/>
@@ -6236,11 +6234,6 @@
     <mergeCell ref="A129:C129"/>
     <mergeCell ref="D129:D136"/>
     <mergeCell ref="E129:F129"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="D100:D106"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="A108:F108"/>
     <mergeCell ref="A109:C109"/>
     <mergeCell ref="D109:D116"/>
     <mergeCell ref="E109:F109"/>
@@ -6252,11 +6245,11 @@
     <mergeCell ref="A92:C92"/>
     <mergeCell ref="D92:D97"/>
     <mergeCell ref="E92:F92"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:D73"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:D106"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="A108:F108"/>
     <mergeCell ref="A76:C76"/>
     <mergeCell ref="D76:D81"/>
     <mergeCell ref="E76:F76"/>
@@ -6268,11 +6261,11 @@
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="D60:D65"/>
     <mergeCell ref="E60:F60"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:D73"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="A75:F75"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="D44:D49"/>
     <mergeCell ref="E44:F44"/>
@@ -6284,14 +6277,19 @@
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="D26:D33"/>
     <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="F54">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
@@ -6342,6 +6340,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100896EBE09FA007C41ABC6E118D15C2F1B" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c252ee0c945148622164f01332870b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7098f881-7107-40b6-a02e-38d1febd9f84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="506fb625f9d8b4fccb7a61bd5dbe90d4" ns2:_="">
     <xsd:import namespace="7098f881-7107-40b6-a02e-38d1febd9f84"/>
@@ -6499,7 +6503,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6508,13 +6512,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94C13D84-244C-4470-95EF-B8526F21AE7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7098f881-7107-40b6-a02e-38d1febd9f84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FFBD693-C580-435E-9EC1-B61B6A31AA1B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6532,26 +6546,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31F3ED34-6A26-49A4-A12E-442E4E51B75C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94C13D84-244C-4470-95EF-B8526F21AE7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7098f881-7107-40b6-a02e-38d1febd9f84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>